--- a/result/excel/country_attack_statistics_by_year.xlsx
+++ b/result/excel/country_attack_statistics_by_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanley/Documents/COURSE/PROGRAMME/Python/ICM_2500434/result/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC28C56C-2595-3B48-A88D-3859207DA615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F5F5D-F3BF-4F4A-978A-38E17F845B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28940" yWindow="660" windowWidth="25360" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54340" yWindow="500" windowWidth="25380" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attack Statistics" sheetId="1" r:id="rId1"/>
@@ -392,12 +392,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -427,11 +433,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112:H112"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9290,79 +9300,79 @@
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112" s="3">
         <v>5</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
         <v>4</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>10</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="3">
         <v>11</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="3">
         <v>17</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="3">
         <v>18</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="3">
         <v>37</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="3">
         <v>58</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="3">
         <v>74</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="3">
         <v>562</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="3">
         <v>456</v>
       </c>
-      <c r="N112">
+      <c r="N112" s="3">
         <v>943</v>
       </c>
-      <c r="O112">
+      <c r="O112" s="3">
         <v>1298</v>
       </c>
-      <c r="P112">
+      <c r="P112" s="3">
         <v>706</v>
       </c>
-      <c r="Q112">
+      <c r="Q112" s="3">
         <v>680</v>
       </c>
-      <c r="R112">
+      <c r="R112" s="3">
         <v>566</v>
       </c>
-      <c r="S112">
+      <c r="S112" s="3">
         <v>435</v>
       </c>
-      <c r="T112">
+      <c r="T112" s="3">
         <v>229</v>
       </c>
-      <c r="U112">
+      <c r="U112" s="3">
         <v>216</v>
       </c>
-      <c r="V112">
+      <c r="V112" s="3">
         <v>186</v>
       </c>
-      <c r="W112">
+      <c r="W112" s="3">
         <v>102</v>
       </c>
-      <c r="X112">
+      <c r="X112" s="3">
         <v>83</v>
       </c>
-      <c r="Y112">
+      <c r="Y112" s="3">
         <v>805</v>
       </c>
     </row>

--- a/result/excel/country_attack_statistics_by_year.xlsx
+++ b/result/excel/country_attack_statistics_by_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanley/Documents/COURSE/PROGRAMME/Python/ICM_2500434/result/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F5F5D-F3BF-4F4A-978A-38E17F845B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408C8374-7D00-0C44-A717-2A71677651DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54340" yWindow="500" windowWidth="25380" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,18 +392,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -438,10 +432,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
